--- a/Worktopia_cod/src/main/resources/Docs/Modelo_factura_excel.xlsx
+++ b/Worktopia_cod/src/main/resources/Docs/Modelo_factura_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d875aac683fd181d/Estudios DAM/DAM2do/Diseño de Interfaces/Worktopia/Worktopia_cod/src/main/resources/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_AD4D2F04E46CFB4ACB3E20F6FD57C390693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD51D551-9CE8-4BF7-82AB-4C2A30B8B3B4}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_AD4D2F04E46CFB4ACB3E20F6FD57C390693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63C5CC1-6242-40C5-8435-B41924725FCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Worktopia SL</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Descuento</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -150,6 +153,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:I48"/>
+  <dimension ref="A10:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I43"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +513,11 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
@@ -544,28 +555,31 @@
       <c r="I13" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
+      <c r="A15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>

--- a/Worktopia_cod/src/main/resources/Docs/Modelo_factura_excel.xlsx
+++ b/Worktopia_cod/src/main/resources/Docs/Modelo_factura_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d875aac683fd181d/Estudios DAM/DAM2do/Diseño de Interfaces/Worktopia/Worktopia_cod/src/main/resources/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_AD4D2F04E46CFB4ACB3E20F6FD57C390693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63C5CC1-6242-40C5-8435-B41924725FCC}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_AD4D2F04E46CFB4ACB3E20F6FD57C390693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34162D54-707F-45E2-9B19-6003234720D6}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37230" yWindow="1170" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Nombre Cliente:</t>
   </si>
   <si>
-    <t>Fecha de pago:</t>
-  </si>
-  <si>
     <t>Base:</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Email:</t>
+  </si>
+  <si>
+    <t>Fecha de emisión:</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
       <c r="A15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="6"/>
     </row>
@@ -789,7 +789,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="6"/>
@@ -802,7 +802,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G48" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
